--- a/employees.xlsx
+++ b/employees.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:I45"/>
+  <dimension ref="B2:H45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -837,9 +837,6 @@
       <c r="D29" s="2" t="n">
         <v>45168</v>
       </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
@@ -888,9 +885,6 @@
       <c r="D32" s="2" t="n">
         <v>45171</v>
       </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
@@ -907,6 +901,9 @@
         <v>45172</v>
       </c>
       <c r="G33" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1110,23 +1107,25 @@
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D31:H31"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D28:I28"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D32:H32"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D31:G31"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D28:H28"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D4:E4"/>
@@ -1136,13 +1135,11 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D32:G32"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D29:H29"/>
-    <mergeCell ref="D36:F36"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D37:G37"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -822,6 +822,9 @@
       <c r="D28" s="2" t="n">
         <v>45167</v>
       </c>
+      <c r="G28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
@@ -903,9 +906,6 @@
       <c r="G33" t="n">
         <v>1</v>
       </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
@@ -951,6 +951,9 @@
       <c r="D36" s="2" t="n">
         <v>45175</v>
       </c>
+      <c r="G36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
@@ -995,9 +998,6 @@
       </c>
       <c r="D39" s="2" t="n">
         <v>45180</v>
-      </c>
-      <c r="G39" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1104,6 +1104,7 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D39:G39"/>
     <mergeCell ref="D24:G24"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D22:E22"/>
@@ -1111,11 +1112,11 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D35:G35"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D44:G44"/>
-    <mergeCell ref="D32:H32"/>
-    <mergeCell ref="D39:F39"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D33:F33"/>
@@ -1124,9 +1125,6 @@
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D36:G36"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="D35:F35"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D18:E18"/>
@@ -1135,11 +1133,13 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D32:G32"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D36:F36"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D43:G43"/>
     <mergeCell ref="D37:G37"/>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -822,9 +822,6 @@
       <c r="D28" s="2" t="n">
         <v>45167</v>
       </c>
-      <c r="G28" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
@@ -855,9 +852,6 @@
       <c r="D30" s="2" t="n">
         <v>45169</v>
       </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
@@ -873,6 +867,9 @@
       <c r="D31" s="2" t="n">
         <v>45170</v>
       </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
@@ -984,6 +981,9 @@
       <c r="D38" s="2" t="n">
         <v>45177</v>
       </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
@@ -998,6 +998,9 @@
       </c>
       <c r="D39" s="2" t="n">
         <v>45180</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1104,19 +1107,17 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D39:G39"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D30:G30"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D28:F28"/>
     <mergeCell ref="D35:G35"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="D33:F33"/>
@@ -1127,6 +1128,7 @@
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D37:H37"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D9:E9"/>
@@ -1136,13 +1138,14 @@
     <mergeCell ref="D32:G32"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D30:H30"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D28:G28"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/employees.xlsx
+++ b/employees.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:H45"/>
+  <dimension ref="B2:I50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,6 +852,9 @@
       <c r="D30" s="2" t="n">
         <v>45169</v>
       </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
@@ -867,9 +870,6 @@
       <c r="D31" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="B32" t="inlineStr">
@@ -903,6 +903,9 @@
       <c r="G33" t="n">
         <v>1</v>
       </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
@@ -948,9 +951,6 @@
       <c r="D36" s="2" t="n">
         <v>45175</v>
       </c>
-      <c r="G36" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
@@ -981,9 +981,6 @@
       <c r="D38" s="2" t="n">
         <v>45177</v>
       </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="39">
       <c r="B39" t="inlineStr">
@@ -1075,48 +1072,133 @@
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>0.3333333333333333</v>
+        <v>45194</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="n">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="n">
+        <v>45196</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="n">
+        <v>45197</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="n">
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>First Name</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
           <t>user</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>1</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E50" t="n">
         <v>1</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F50" t="n">
         <v>1</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G50" t="n">
         <v>1</v>
       </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="47">
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D30:G30"/>
     <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D48:I48"/>
+    <mergeCell ref="D46:H46"/>
     <mergeCell ref="D42:G42"/>
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D35:G35"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D49:H49"/>
+    <mergeCell ref="D32:H32"/>
     <mergeCell ref="D39:F39"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="D17:E17"/>
@@ -1125,27 +1207,28 @@
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D31:G31"/>
     <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D45:G45"/>
     <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D47:H47"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D35:F35"/>
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D37:H37"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D27:G27"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D32:G32"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D41:G41"/>
-    <mergeCell ref="D30:H30"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D43:G43"/>
-    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D37:G37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
